--- a/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11850,7 +11851,6 @@
           <t>国融融泰灵活配置混合C</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
           <t>69.53</t>
@@ -11920,7 +11920,6 @@
           <t>国融融盛龙头严选混合C</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>91.86</t>
@@ -11936,6 +11935,9666 @@
       </c>
       <c r="H137" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H254"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>504.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>40.5499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>287.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>23.8505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>242.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>19.4631</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>256.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15.6154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>138.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12.4168</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>140.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.0948</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009776</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>171.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7.6611</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.9384</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001679</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>118.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.3763</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.9935</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>131.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.7299</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5.5562</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源国家比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.9918</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>95.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.6633</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>107.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4.3549</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4.1804</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>71.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4.1133</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4.1132</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4.0435</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.8178</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>3.4854</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3.3421</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3.3081</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3.0678</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>35.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.9449</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.8368</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.8230</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009777</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.8094</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.6338</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2.5901</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2.4625</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2.3855</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2.1224</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2.0908</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2.0352</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>35.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2.0117</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.9554</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.8225</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>30.83</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.6001</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.5633</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002079</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源中国稀缺资产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.5523</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.4606</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧明睿新起点混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.4470</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.3041</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.2338</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.2245</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.0314</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.0270</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1.0123</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.9658</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.9452</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.9316</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.9095</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.8804</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.8173</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.8038</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.7519</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.7147</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.6985</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.6706</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.6433</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.6410</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.6167</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.5612</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4898</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.4790</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.4738</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3967</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3958</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3934</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>76.49</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2686</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>63.18</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>36.89</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004270</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富民丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>30.89</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>42.08</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>36.89</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>63.18</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>008154</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>008155</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF联接C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>42.08</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>159803</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>易方达中证浙江新动能ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>004271</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>汇添富民丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21543,7 +21544,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
           <t>90.01</t>
@@ -21595,6 +21595,8474 @@
       </c>
       <c r="H254" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H223"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>634.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>43.1392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>321.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>21.8770</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>244.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.5792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>141.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.1945</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>111.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.6623</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>116.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.7741</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.6708</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.2893</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.3518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.2504</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.0723</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>108.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.7744</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009556</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.0210</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>340007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全社会责任混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.7173</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.4158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.4147</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.3259</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.2326</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.2237</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.1627</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.1420</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8856</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.8394</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>51.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.7728</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.7616</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.7433</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5830</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>42.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.4441</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.3552</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3388</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.3388</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.2839</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.2020</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.1756</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.1633</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.1258</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.1048</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.0883</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.0719</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.0361</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.0024</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.9819</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8973</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>22.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.8455</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.8241</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.8062</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.7083</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6661</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.6359</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.6357</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5739</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>61.53</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5431</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5028</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4919</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4732</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3465</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3353</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>15.93</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>68.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>东方红新海混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>65.38</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>012326</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>004270</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇添富民丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012327</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>66.71</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>004774</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>汇添富添福吉祥混合</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>004271</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>汇添富民丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>004222</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>金信民旺债券A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>004402</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>金信民旺债券C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>24.77</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>66.71</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29907,7 +29908,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
           <t>91.03</t>
@@ -30011,7 +30011,6 @@
           <t>东方红新源三年持有期混合型证券投资基金B</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
           <t>65.23</t>
@@ -30063,6 +30062,106 @@
       </c>
       <c r="H223" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>222</v>
+      </c>
+      <c r="D2" t="n">
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>253</v>
+      </c>
+      <c r="D3" t="n">
+        <v>288.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>136</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>164</v>
+      </c>
+      <c r="D5" t="n">
+        <v>174.09</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30075,7 +30076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30086,17 +30087,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -30106,14 +30127,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>222</v>
-      </c>
-      <c r="D2" t="n">
-        <v>208.5</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>434.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.5116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -30122,14 +30165,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>253</v>
-      </c>
-      <c r="D3" t="n">
-        <v>288.13</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -30138,14 +30203,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>136</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133.33</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>130.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.7516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -30154,13 +30241,2963 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>140.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7958</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>106.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1791</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7888</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9357</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8961</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5073</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1701</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1687</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0916</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0673</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0286</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9958</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8353</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7592</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7498</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7090</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6999</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6516</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6513</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>57.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>78</v>
+      </c>
+      <c r="D2" t="n">
+        <v>78.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>222</v>
+      </c>
+      <c r="D3" t="n">
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>253</v>
+      </c>
+      <c r="D4" t="n">
+        <v>288.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>164</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>174.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33096,7 +33097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33107,17 +33108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -33127,14 +33148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" t="n">
-        <v>78.11</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -33143,14 +33186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>222</v>
-      </c>
-      <c r="D3" t="n">
-        <v>208.5</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9717</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -33159,14 +33224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>253</v>
-      </c>
-      <c r="D4" t="n">
-        <v>288.13</v>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3118</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -33175,14 +33262,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>136</v>
-      </c>
-      <c r="D5" t="n">
-        <v>133.33</v>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -33191,13 +33300,2369 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4166</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9883</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8903</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8753</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8337</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7245</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6801</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>52.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>52.49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>222</v>
+      </c>
+      <c r="D4" t="n">
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>253</v>
+      </c>
+      <c r="D5" t="n">
+        <v>288.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>136</v>
+      </c>
+      <c r="D6" t="n">
+        <v>133.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>164</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>174.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35545,7 +35546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35556,17 +35557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -35576,14 +35597,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.21</v>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>710.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>27.4373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -35592,14 +35635,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" t="n">
-        <v>78.11</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>384.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.8595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -35608,14 +35673,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>222</v>
-      </c>
-      <c r="D4" t="n">
-        <v>208.5</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>126.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.2757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -35624,14 +35711,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>253</v>
-      </c>
-      <c r="D5" t="n">
-        <v>288.13</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.8298</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -35640,14 +35749,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>136</v>
-      </c>
-      <c r="D6" t="n">
-        <v>133.33</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>145.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8942</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -35656,13 +35787,5837 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6911</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.6448</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>184.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.5962</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>135.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.4875</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.3459</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6281</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5611</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3899</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3411</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7514</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6036</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5919</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4522</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2654</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2654</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0848</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0201</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9038</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8647</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8617</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7778</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>111.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6772</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6657</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5390</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5066</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4635</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4445</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3764</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2200</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012029</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005226</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>山西证券改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012030</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013873</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013874</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>155</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>222</v>
+      </c>
+      <c r="D5" t="n">
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>253</v>
+      </c>
+      <c r="D6" t="n">
+        <v>288.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>136</v>
+      </c>
+      <c r="D7" t="n">
+        <v>133.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>164</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>174.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600763-通策医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>126.38</v>
+        <v>61.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="D3" t="n">
-        <v>34.21</v>
+        <v>126.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>78.11</v>
+        <v>34.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>208.5</v>
+        <v>78.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D6" t="n">
-        <v>288.13</v>
+        <v>208.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="D7" t="n">
-        <v>133.33</v>
+        <v>288.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>136</v>
+      </c>
+      <c r="D8" t="n">
+        <v>133.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>164</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>174.09</v>
       </c>
     </row>
@@ -600,6 +617,3974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>279.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.1240</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>157.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.8002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3765</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>111.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3262</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8670</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7800</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2136</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1658</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0452</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9100</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3824</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014016</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014017</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中信建投品质优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013001</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>560600</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正富邦中证医药及医疗器械创新ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015774</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015365</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中银动态策略混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014537</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中银中国混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6537,7 +10522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8985,7 +12970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12005,7 +15990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20471,7 +24456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30130,7 +34115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35340,7 +39325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
